--- a/public/uploads/excel/warden.xlsx
+++ b/public/uploads/excel/warden.xlsx
@@ -1,54 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Micole\hostel management system\excel import\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3407D85-811F-4D92-BC6F-E089AE4C92ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{08E06AA4-BEA8-4B29-B2A6-6752FD1A432E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
-  <si>
-    <t>Nama</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>no_tel_bimbit</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>No. Tel Bimbit</t>
-  </si>
-  <si>
-    <t>warden 1</t>
-  </si>
-  <si>
-    <t>warden1@gmail.com</t>
-  </si>
-  <si>
-    <t>0106594357</t>
+    <t>testwarden4@gmail.com</t>
+  </si>
+  <si>
+    <t>testwarden5@gmail.com</t>
+  </si>
+  <si>
+    <t>testwarden6@gmail.com</t>
+  </si>
+  <si>
+    <t>0102023311</t>
+  </si>
+  <si>
+    <t>0102023312</t>
+  </si>
+  <si>
+    <t>0102023313</t>
+  </si>
+  <si>
+    <t>testwarden4</t>
+  </si>
+  <si>
+    <t>testwarden5</t>
+  </si>
+  <si>
+    <t>testwarden6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,21 +110,37 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -89,44 +155,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -154,14 +220,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -189,6 +272,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -200,188 +300,161 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAF7379-4B16-4341-8799-490AEC10B25B}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,30 +465,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{AC233880-801A-4E23-90B8-D38A766598B9}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{8959E8C1-E83D-48D6-A51A-C42FE550A5F7}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{9CD8E39D-0DE2-43D3-AC0D-01F2E6BFC41A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>